--- a/Percentage of Change.xlsx
+++ b/Percentage of Change.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jing\Desktop\Galvanize_Capstones\JingWu-Capstone2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21217811-489F-4949-9924-2CAF6CFE9828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8661C-B294-41A7-A8B3-4AA461DD8E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FFF9EFAE-87A2-4175-B6B7-36673846239C}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>South Portland</t>
   </si>
   <si>
-    <t>% Change</t>
+    <t>% Change (2017-2020)</t>
   </si>
 </sst>
 </file>
@@ -109,14 +109,13 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -124,9 +123,8 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,12 +158,14 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,27 +484,27 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Percentage of Change.xlsx
+++ b/Percentage of Change.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jing\Desktop\Galvanize_Capstones\JingWu-Capstone2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8661C-B294-41A7-A8B3-4AA461DD8E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1059C3FD-28D5-435D-A309-EBFC58FD8E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FFF9EFAE-87A2-4175-B6B7-36673846239C}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>South Portland</t>
   </si>
   <si>
-    <t>% Change (2017-2020)</t>
+    <t>% Change in Number of Listings (2017-2020)</t>
   </si>
 </sst>
 </file>
@@ -115,13 +115,13 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -160,11 +160,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -484,18 +484,18 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="81" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -504,7 +504,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
